--- a/Python/Classes logger/CompletedClasses.xlsx
+++ b/Python/Classes logger/CompletedClasses.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,8 +438,9 @@
     <col width="23.1" customWidth="1" min="5" max="5"/>
     <col width="23.1" customWidth="1" min="6" max="6"/>
     <col width="9.9" customWidth="1" min="7" max="7"/>
-    <col width="25.3" customWidth="1" min="8" max="8"/>
-    <col width="20.9" customWidth="1" min="9" max="9"/>
+    <col width="15.4" customWidth="1" min="8" max="8"/>
+    <col width="25.3" customWidth="1" min="9" max="9"/>
+    <col width="20.9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,10 +481,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">  Hours Conv  </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">     Lesson Taught     </t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Remarks      </t>
         </is>
@@ -497,12 +503,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Grade 3, Section E</t>
+          <t>Sunbeam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,230 +518,1989 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Figma</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>07/01/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Figma</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>09/01/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Grade 1, Section F</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t xml:space="preserve">10:10 am to 11:10 am </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10:45 am to 11:45 am</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11:15 am to 12:15 am</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Even or odd mblock</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Grade 6, Section F</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12:05 am to 1:05 am </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12:35 pm to 1:35 pm</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>AI speech recognition, AI chat bot</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Grade 8, Section E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1:35 pm to 2:35 pm</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Story telling python</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Grade 7, Section M</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10:00 am to 10:40 am</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0:40</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>html forms</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Angels Valley</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>00:12</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Story telling in python</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>02/02/2023</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Grade 9, Section E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+          <t>Grade 5, Section F</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">9:00 am to 10:10 am </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9:40 am to 10:45 am</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1:05</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Rock Paper scissors</t>
-        </is>
-      </c>
+          <t xml:space="preserve">12:05 pm to 1:05 pm </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
+          <t>Grade 5, Section E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>10/01/2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Grade 10, Section E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10:00 am to 10:45 am</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0:45</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Students didnt join</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Grade 6, Section E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Grade 4, Section E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>11/01/2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Grade 3, Section E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Grade 6, Section F</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Grade 8, Section E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Figma/Buttons</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>12/01/2023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Grade 9, Section E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Grade 7, Section E</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">1:05 pm to 2:15 pm </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>13/01/2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Grade 9, Section F</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Grade 2, Section E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Grade 4, Section F</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Figma/Colour coordination</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>15/01/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>16/01/2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Grade 1, Section F</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10:00 am to 11:15 am</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1:15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>race,sunset</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>11:15 am to 12:35 pm</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1:20</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1.333</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>rock paper scissors, matrices</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Grade 5, Section F</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 pm to 1:05 pm </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1:00 pm to 1:50 pm</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>sqrt,factors and multiples</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Grade 5, Section E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1:50 pm to 2:50 pm</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>sqrt,factors and multiples</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>17/01/2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Grade 10, Section E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10:00 am to 11:15 am</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1:15</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>story telling</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Grade 6, Section E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>11:15 am to 12:15 pm</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>waste sorting</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Grade 4, Section E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1:50 pm to 2:50 pm</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>simple interest</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>18/01/2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Grade 3, Section E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>11:15 am to 12:20 pm</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1:05</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1.083</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>made a game with kids to make the bird escape balloon and fish escape jelly fish</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Grade 6, Section F</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1:00 pm to 1:50 pm</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Waste sorting</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Grade 8, Section E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1:50 pm to 2:50 pm</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>temperature conversion</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1:20</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1.333</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>helped kids with their doubts and errors</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>19/01/2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Grade 9, Section E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10:00 am to 11:15 am</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1:15</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>story telling</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>students didnt join</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Grade 7, Section E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1:50 pm to 2:50 pm</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>external css</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>20/01/2023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Grade 9, Section F</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.00 am to 11.25 am</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1:25</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1.417</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">currency exchange </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Grade 2, Section E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>11:35 am to 12:20 pm</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0:45</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>drive across the city, run a race</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Grade 4, Section F</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1:00 pm to 1:50 pm</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">simple interest </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>21/01/2023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>11:15 am to 11:45 am</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>School wasnt responding</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:27 pm</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1:27</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>taught figma desktop web page twitter</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DSheritage:Grade 6, Section A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1:40 pm to 2:10 pm</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1:40 pm to 2:10 pm</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>lists and tuples</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>replacement class for prince</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>22/01/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>23/01/2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Grade 1, Section F</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9:40 am to 10:45 am</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1:05</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1.083</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Class Cancelled</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Grade 5, Section F</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 pm to 1:05 pm </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>12:35 pm to 12:46 pm</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0:11</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.183</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>School had tech issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Grade 5, Section E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1:30 pm to 2:30 pm</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Bar graphs, line graphs, dual graphs, pie chart</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>24/01/2023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Grade 10, Section E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Grade 6, Section E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10:45 am to 11:45 am</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Intro to AI, build app to recognize handwritten text and printed text</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Grade 4, Section E</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>1:35 pm to 2:35 pm</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>internal CSS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Understanding of music by using mBlock</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>25/01/2023</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Grade 3, Section E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>11:15 am to 12:35 pm</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1:20</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1.333</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Simple machines in mblock</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Grade 6, Section F</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1:00 pm to 1:50 pm</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Intro to AI and build app to find handwritten text</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Grade 8, Section E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1:50 pm to 2:50 pm</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">currency exchange </t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6:00 pm to 7:00 pm</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9 Grade, Section Vayu</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>9:40 am to 11:00 am</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9:40 am to 11:00 am</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1:25</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1.417</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Intro to python, data types and flow control statements</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Singhal school replacement class</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>26/01/2023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Grade 9, Section E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Grade 7, Section E</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1:05 pm to 2:15 pm </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>27/01/2023</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Grade 9, Section F</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9:00 am to 10:10 am </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Grade 2, Section E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:10 am to 11:10 am </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Grade 4, Section F</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:05 am to 1:05 am </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>02/02/2023</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2:10</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2.167</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>dfdfddf</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="46">
     <mergeCell ref="A1"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A31"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A58"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Python/Classes logger/CompletedClasses.xlsx
+++ b/Python/Classes logger/CompletedClasses.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,11 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -50,12 +55,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,13 +452,17 @@
     <col width="16.5" customWidth="1" min="1" max="1"/>
     <col width="15.4" customWidth="1" min="2" max="2"/>
     <col width="20.9" customWidth="1" min="3" max="3"/>
-    <col width="14.3" customWidth="1" min="4" max="4"/>
+    <col width="6.600000000000001" customWidth="1" min="4" max="4"/>
     <col width="23.1" customWidth="1" min="5" max="5"/>
     <col width="23.1" customWidth="1" min="6" max="6"/>
     <col width="9.9" customWidth="1" min="7" max="7"/>
-    <col width="15.4" customWidth="1" min="8" max="8"/>
-    <col width="25.3" customWidth="1" min="9" max="9"/>
-    <col width="20.9" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="30.8" customWidth="1" min="9" max="9"/>
+    <col width="26.4" customWidth="1" min="10" max="10"/>
+    <col width="27.5" customWidth="1" min="12" max="12"/>
+    <col width="5.5" customWidth="1" min="13" max="13"/>
+    <col width="9.9" customWidth="1" min="14" max="14"/>
+    <col width="15.4" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +483,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Conducted  </t>
+          <t xml:space="preserve"> Cond </t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,17 +503,49 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hours Conv  </t>
+          <t xml:space="preserve"> Hrs Conv </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Lesson Taught     </t>
+          <t xml:space="preserve">       Lesson Taught        </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Remarks      </t>
+          <t xml:space="preserve">        Remarks         </t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUMMARY </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Grade/Section      </t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No. </t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Hours  </t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hrs. Decimal </t>
         </is>
       </c>
     </row>
@@ -531,17 +585,58 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Figma</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t xml:space="preserve">Figma </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>9 Grade, Section Vayu</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>1:25</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSheritage:Grade 6, Section A</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -579,17 +674,58 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Figma</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t xml:space="preserve">Figma </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Grade 1, Section F</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>2:20</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2.333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Grade 10, Section E</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -615,8 +751,37 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>2:20</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>2.333</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -644,17 +809,40 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Story telling in python</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t xml:space="preserve">Story telling in python </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -670,8 +858,37 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Grade 2, Section E</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>0:45</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -687,8 +904,55 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Grade 3, Section E</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>2:25</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2.416</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Grade 4, Section E</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -726,16 +990,39 @@
           <t>0:45</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Students didnt join</t>
-        </is>
+          <t xml:space="preserve">Students didnt join </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Grade 4, Section F</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0.833</v>
       </c>
     </row>
     <row r="13">
@@ -752,8 +1039,37 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Grade 5, Section E</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
@@ -769,8 +1085,55 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Grade 5, Section F</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>0:50</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Grade 6, Section E</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -796,8 +1159,37 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Grade 6, Section F</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
+        <is>
+          <t>1:40</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1.666</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
@@ -813,8 +1205,37 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Grade 7, Section E</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
@@ -830,8 +1251,37 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Grade 8, Section E</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
@@ -859,17 +1309,58 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Figma/Buttons</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t xml:space="preserve">Figma/Buttons </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Grade 9, Section E</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t>1:15</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Grade 9, Section F</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>1:25</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1.417</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -895,8 +1386,37 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Sunbeam</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>6:47</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>6.783</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
@@ -912,8 +1432,55 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dfdfddf</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -939,8 +1506,37 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
@@ -956,8 +1552,37 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>uuuuu</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
@@ -973,8 +1598,39 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>Total: Rs. 17015.5</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N26" s="6" t="inlineStr">
+        <is>
+          <t>34:02</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>34.031</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1000,8 +1656,21 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
@@ -1029,28 +1698,73 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Figma/Colour coordination</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t xml:space="preserve">Figma/Colour coordination </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Date </t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No. </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>04/01/2023, Wednesday</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>15/01/2023</t>
         </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>07/01/2023, Saturday</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>09/01/2023, Monday</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1089,17 +1803,32 @@
           <t>1:15</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
+      <c r="H33" t="n">
+        <v>1.25</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>race,sunset</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t xml:space="preserve">race,sunset </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10/01/2023, Tuesday</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
@@ -1127,17 +1856,32 @@
           <t>1:20</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1.333</t>
-        </is>
+      <c r="H34" t="n">
+        <v>1.333</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>rock paper scissors, matrices</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t xml:space="preserve">rock paper scissors, matrices </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>11/01/2023, Wednesday</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
@@ -1165,17 +1909,32 @@
           <t>0:50</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.833</t>
-        </is>
+      <c r="H35" t="n">
+        <v>0.833</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sqrt,factors and multiples</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t xml:space="preserve">sqrt,factors and multiples </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>12/01/2023, Thursday</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
@@ -1203,17 +1962,42 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sqrt,factors and multiples</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t xml:space="preserve">sqrt,factors and multiples </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>13/01/2023, Friday</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>14/01/2023, Saturday</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -1251,17 +2035,32 @@
           <t>1:15</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
+      <c r="H38" t="n">
+        <v>1.25</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>story telling</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t xml:space="preserve">story telling </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>15/01/2023, Sunday</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
@@ -1289,17 +2088,32 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>waste sorting</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t xml:space="preserve">waste sorting </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>16/01/2023, Monday</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
@@ -1327,17 +2141,42 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H40" t="n">
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>simple interest</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t xml:space="preserve">simple interest </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>17/01/2023, Tuesday</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18/01/2023, Wednesday</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1375,17 +2214,32 @@
           <t>1:05</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1.083</t>
-        </is>
+      <c r="H42" t="n">
+        <v>1.083</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>made a game with kids to make the bird escape balloon and fish escape jelly fish</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t xml:space="preserve">made a game with kids to make the bird escape balloon and fish escape jelly fish </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>19/01/2023, Thursday</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
@@ -1413,17 +2267,32 @@
           <t>0:50</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0.833</t>
-        </is>
+      <c r="H43" t="n">
+        <v>0.833</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Waste sorting</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t xml:space="preserve">Waste sorting </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>20/01/2023, Friday</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
@@ -1451,17 +2320,32 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H44" t="n">
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>temperature conversion</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t xml:space="preserve">temperature conversion </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>21/01/2023, Saturday</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
@@ -1489,17 +2373,42 @@
           <t>1:20</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1.333</t>
-        </is>
+      <c r="H45" t="n">
+        <v>1.333</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>helped kids with their doubts and errors</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t xml:space="preserve">helped kids with their doubts and errors </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>22/01/2023, Sunday</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>23/01/2023, Monday</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -1537,20 +2446,31 @@
           <t>1:15</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
+      <c r="H47" t="n">
+        <v>1.25</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>story telling</t>
+          <t xml:space="preserve">story telling </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>students didnt join</t>
-        </is>
+          <t xml:space="preserve">students didnt join </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>24/01/2023, Tuesday</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1579,17 +2499,42 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>external css</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t xml:space="preserve">external css </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>25/01/2023, Wednesday</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>26/01/2023, Thursday</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -1627,17 +2572,32 @@
           <t>1:25</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1.417</t>
-        </is>
+      <c r="H50" t="n">
+        <v>1.417</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">currency exchange </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t xml:space="preserve">currency exchange  </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>27/01/2023, Friday</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
@@ -1665,17 +2625,32 @@
           <t>0:45</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
+      <c r="H51" t="n">
+        <v>0.75</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>drive across the city, run a race</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t xml:space="preserve">drive across the city, run a race </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>02/02/2023, Thursday</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
@@ -1703,17 +2678,32 @@
           <t>0:50</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0.833</t>
-        </is>
+      <c r="H52" t="n">
+        <v>0.833</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">simple interest </t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t xml:space="preserve">simple interest  </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>06/02/2023, Monday</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -1751,15 +2741,22 @@
           <t>0:30</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>School wasnt responding</t>
+          <t xml:space="preserve">School wasnt responding </t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1789,17 +2786,24 @@
           <t>1:27</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
+      <c r="H55" t="n">
+        <v>1.45</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>taught figma desktop web page twitter</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t xml:space="preserve">taught figma desktop web page twitter </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
@@ -1827,29 +2831,32 @@
           <t>0:30</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
+      <c r="H56" t="n">
+        <v>0.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>lists and tuples</t>
+          <t xml:space="preserve">lists and tuples </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>replacement class for prince</t>
+          <t xml:space="preserve">replacement class for prince </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" s="7" t="inlineStr">
         <is>
           <t>22/01/2023</t>
         </is>
@@ -1891,17 +2898,24 @@
           <t>1:05</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1.083</t>
-        </is>
+      <c r="H60" t="n">
+        <v>1.083</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Class Cancelled</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t xml:space="preserve">Class Cancelled </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
@@ -1917,8 +2931,21 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
@@ -1942,15 +2969,22 @@
           <t>0:11</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0.183</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>School had tech issue</t>
+          <t xml:space="preserve">School had tech issue </t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1980,17 +3014,24 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H63" t="n">
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bar graphs, line graphs, dual graphs, pie chart</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t xml:space="preserve">Bar graphs, line graphs, dual graphs, pie chart </t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -2016,8 +3057,21 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="C66" t="inlineStr">
@@ -2045,17 +3099,24 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H66" t="n">
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Intro to AI, build app to recognize handwritten text and printed text</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t xml:space="preserve">Intro to AI, build app to recognize handwritten text and printed text </t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="C67" t="inlineStr">
@@ -2083,17 +3144,24 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H67" t="n">
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Understanding of music by using mBlock</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t xml:space="preserve">Understanding of music by using mBlock </t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -2131,17 +3199,24 @@
           <t>1:20</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1.333</t>
-        </is>
+      <c r="H69" t="n">
+        <v>1.333</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Simple machines in mblock</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t xml:space="preserve">Simple machines in mblock </t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="C70" t="inlineStr">
@@ -2169,17 +3244,24 @@
           <t>0:50</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0.833</t>
-        </is>
+      <c r="H70" t="n">
+        <v>0.833</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Intro to AI and build app to find handwritten text</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t xml:space="preserve">Intro to AI and build app to find handwritten text </t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="C71" t="inlineStr">
@@ -2207,17 +3289,24 @@
           <t>1:00</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="H71" t="n">
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">currency exchange </t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t xml:space="preserve">currency exchange  </t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
@@ -2233,8 +3322,21 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="C73" t="inlineStr">
@@ -2262,19 +3364,22 @@
           <t>1:25</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1.417</t>
-        </is>
+      <c r="H73" t="n">
+        <v>1.417</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Intro to python, data types and flow control statements</t>
+          <t xml:space="preserve">Intro to python, data types and flow control statements </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Singhal school replacement class</t>
+          <t xml:space="preserve">Singhal school replacement class </t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2302,8 +3407,21 @@
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
@@ -2319,8 +3437,21 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="C77" t="inlineStr">
@@ -2332,8 +3463,21 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -2363,8 +3507,21 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="C80" t="inlineStr">
@@ -2380,8 +3537,21 @@
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="C81" t="inlineStr">
@@ -2401,8 +3571,21 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -2432,13 +3615,24 @@
           <t>2:10</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2.167</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="C84" t="inlineStr">
@@ -2450,11 +3644,64 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>06/02/2023</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>uuuuu</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>kkk</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="49">
     <mergeCell ref="A1"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="A3"/>
@@ -2501,6 +3748,9 @@
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A86"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
